--- a/data/graph4_test.xlsx
+++ b/data/graph4_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joyoppliger/Desktop/VisualDon/projet_visualdon/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADB5273-4AB7-F146-8986-A20B512612C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9BA8AB-3210-0846-A121-153BA01D28B5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2520" yWindow="460" windowWidth="27640" windowHeight="16940" xr2:uid="{382F2E7E-A0E9-A047-9CC5-315708191351}"/>
   </bookViews>
@@ -694,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98168BF-C014-CF4C-93E0-D1994AE4CA60}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="A2:E51"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
